--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2960573.273081903</v>
+        <v>2957709.479445527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587983</v>
+        <v>8444421.381715726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8879266.143258559</v>
+        <v>8879242.816348571</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>114.7465342229398</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>23.59568114728139</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.1215549865456</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>17.10344399375859</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.9137890538179</v>
       </c>
       <c r="H8" t="n">
-        <v>258.2668337170626</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888059</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>254.2524851507926</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>214.8472539267893</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025123</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486458</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>120.6353666620228</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312954</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787915</v>
+        <v>7.081331206015648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094685</v>
+        <v>88.79820333299216</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766609</v>
+        <v>2.334151821526078</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.9677125453258</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>84.28234746704</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.8854232942676</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>34.61763677078898</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787915</v>
+        <v>7.081331206015648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094685</v>
+        <v>88.79820333299216</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766609</v>
+        <v>2.334151821526078</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.96771254532603</v>
+        <v>22.69081757133055</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.28234746704</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787915</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094685</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766609</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>56.54098418261762</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898778</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125481</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>136.6153053500539</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.749532638427122</v>
       </c>
       <c r="E37" t="n">
-        <v>9.434273714502922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>105.3798824585353</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>0.5702895981423444</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>81.37259901119566</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.39216899855755</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812024</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.349062792415</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>966.622729332398</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>966.622729332398</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>580.8344767341537</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>169.8485719445461</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="C5" t="n">
-        <v>558.825384592777</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="D5" t="n">
-        <v>558.825384592777</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="E5" t="n">
-        <v>558.825384592777</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>551.8798838435736</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1563.476704221263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.6874762441716</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>335.6874762441716</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>335.6874762441716</v>
+        <v>753.6526864263105</v>
       </c>
       <c r="E8" t="n">
-        <v>335.6874762441716</v>
+        <v>753.6526864263105</v>
       </c>
       <c r="F8" t="n">
-        <v>328.7419754949681</v>
+        <v>746.7071856771071</v>
       </c>
       <c r="G8" t="n">
-        <v>314.818571433559</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>722.2873163082934</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176197</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366029</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037953</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2749.9835782646</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
         <v>95.56103444839442</v>
@@ -5200,13 +5200,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.7726509601082</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8364680322013</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198656</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374724</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374724</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1699.522774033195</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1444.838285827308</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.421115790348</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.421115790348</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="Y16" t="n">
-        <v>1155.421115790348</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>750.1800661608916</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221643</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786342</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,22 +5753,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>722.4071781934688</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201818</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221643</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6069,7 +6069,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783398</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413792</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221643</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141821</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653988</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886067</v>
+        <v>358.202194515378</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030691</v>
+        <v>804.7014151994158</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675074</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054108</v>
+        <v>2084.599393525237</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028839</v>
+        <v>3074.016219660736</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300296</v>
+        <v>3726.239688016504</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646626</v>
+        <v>4248.39632767595</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716699</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044007</v>
+        <v>96.49777987399521</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="K27" t="n">
-        <v>94.16119234461522</v>
+        <v>408.9378168618744</v>
       </c>
       <c r="L27" t="n">
-        <v>562.2370873551745</v>
+        <v>878.5448029964357</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.816447291102</v>
+        <v>1445.91087405717</v>
       </c>
       <c r="N27" t="n">
-        <v>1722.77365486637</v>
+        <v>1445.91087405717</v>
       </c>
       <c r="O27" t="n">
-        <v>2244.823470273854</v>
+        <v>1969.638441211017</v>
       </c>
       <c r="P27" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>474.6011738263171</v>
+        <v>663.4204312736109</v>
       </c>
       <c r="C28" t="n">
-        <v>305.6649908984102</v>
+        <v>494.484248345704</v>
       </c>
       <c r="D28" t="n">
-        <v>305.6649908984102</v>
+        <v>494.484248345704</v>
       </c>
       <c r="E28" t="n">
-        <v>241.0511398425256</v>
+        <v>346.5711547633109</v>
       </c>
       <c r="F28" t="n">
-        <v>94.16119234461522</v>
+        <v>346.5711547633109</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461522</v>
+        <v>179.273735071484</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461522</v>
+        <v>179.273735071484</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532473</v>
+        <v>417.5071952352228</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834332</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185971</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591901</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.274661052481</v>
+        <v>2092.617956886288</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174216</v>
+        <v>1872.583577444209</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940952</v>
+        <v>1583.502824220769</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735065</v>
+        <v>1328.818336014882</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698104</v>
+        <v>1293.851026145398</v>
       </c>
       <c r="X28" t="n">
-        <v>877.042217800087</v>
+        <v>1065.861475247381</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565568</v>
+        <v>845.0688961038506</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955677</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348927</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750683</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610752</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653988</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886067</v>
+        <v>358.202194515378</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030691</v>
+        <v>804.7014151994158</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675074</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M29" t="n">
-        <v>2077.43150014143</v>
+        <v>2084.599393525237</v>
       </c>
       <c r="N29" t="n">
-        <v>2779.91807611616</v>
+        <v>2789.437597974651</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300296</v>
+        <v>3441.661066330419</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646626</v>
+        <v>4038.204486922646</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185322</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810787</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467216</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197102</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044007</v>
+        <v>96.49777987399524</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K30" t="n">
-        <v>407.8202819091933</v>
+        <v>408.9378168618745</v>
       </c>
       <c r="L30" t="n">
-        <v>407.8202819091933</v>
+        <v>408.9378168618745</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3996418451204</v>
+        <v>976.3038879226091</v>
       </c>
       <c r="N30" t="n">
-        <v>1568.356849420389</v>
+        <v>1573.095095549634</v>
       </c>
       <c r="O30" t="n">
-        <v>1943.379525386858</v>
+        <v>2096.822662703481</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.037460732811</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>474.6011738263173</v>
+        <v>662.2204736073512</v>
       </c>
       <c r="C31" t="n">
-        <v>305.6649908984105</v>
+        <v>662.2204736073512</v>
       </c>
       <c r="D31" t="n">
-        <v>305.6649908984105</v>
+        <v>512.1038341950155</v>
       </c>
       <c r="E31" t="n">
-        <v>241.0511398425256</v>
+        <v>489.1838164461968</v>
       </c>
       <c r="F31" t="n">
-        <v>94.16119234461522</v>
+        <v>489.1838164461968</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461522</v>
+        <v>321.8863967543699</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461522</v>
+        <v>179.2737350714841</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532473</v>
+        <v>417.5071952352228</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834332</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="S31" t="n">
-        <v>2158.274661052482</v>
+        <v>2164.219394557266</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.214509174217</v>
+        <v>1944.185015115187</v>
       </c>
       <c r="U31" t="n">
-        <v>1649.133426940952</v>
+        <v>1655.104261891746</v>
       </c>
       <c r="V31" t="n">
-        <v>1394.448938735065</v>
+        <v>1400.419773685859</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.031768698105</v>
+        <v>1111.002603648899</v>
       </c>
       <c r="X31" t="n">
-        <v>877.0422178000872</v>
+        <v>883.0130527508813</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.2496386565571</v>
+        <v>662.2204736073512</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141825</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653985</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886067</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030691</v>
+        <v>804.7014151994176</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.193343587752</v>
+        <v>1395.524942477767</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054108</v>
+        <v>2084.599393525242</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028839</v>
+        <v>3074.016219660731</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300296</v>
+        <v>3726.239688016501</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646626</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C33" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044007</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421375</v>
+        <v>232.5958076174681</v>
       </c>
       <c r="K33" t="n">
-        <v>545.6098185067157</v>
+        <v>547.3935737180007</v>
       </c>
       <c r="L33" t="n">
-        <v>1013.685713517275</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M33" t="n">
-        <v>1579.265073453202</v>
+        <v>1387.611243893755</v>
       </c>
       <c r="N33" t="n">
-        <v>1638.571259357063</v>
+        <v>1387.611243893755</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.621074764546</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.4988349005104</v>
+        <v>698.0513243295795</v>
       </c>
       <c r="C34" t="n">
-        <v>639.5626519726035</v>
+        <v>529.1151414016728</v>
       </c>
       <c r="D34" t="n">
-        <v>489.4460125602677</v>
+        <v>378.9985019893371</v>
       </c>
       <c r="E34" t="n">
-        <v>489.4460125602677</v>
+        <v>378.9985019893371</v>
       </c>
       <c r="F34" t="n">
-        <v>489.4460125602677</v>
+        <v>321.8863967543697</v>
       </c>
       <c r="G34" t="n">
-        <v>322.1425610216739</v>
+        <v>321.8863967543697</v>
       </c>
       <c r="H34" t="n">
-        <v>179.4762707375322</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573049</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532473</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358419</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961142</v>
+        <v>2277.238529591905</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616871</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738606</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U34" t="n">
-        <v>1728.346599809258</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.346599809258</v>
+        <v>1617.899089238327</v>
       </c>
       <c r="W34" t="n">
-        <v>1438.929429772297</v>
+        <v>1328.481919201367</v>
       </c>
       <c r="X34" t="n">
-        <v>1210.93987887428</v>
+        <v>1100.492368303349</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.1472997307501</v>
+        <v>879.6997891598193</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6935,22 +6935,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
         <v>4202.751434297606</v>
@@ -6980,7 +6980,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>302.0892292003568</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>792.8215620441082</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475997</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="C37" t="n">
-        <v>495.0957149475997</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>495.0957149475997</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E37" t="n">
-        <v>485.5661455390109</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F37" t="n">
-        <v>485.5661455390109</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
         <v>176.4792337520202</v>
@@ -7123,7 +7123,7 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747509</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
         <v>1669.627968062235</v>
@@ -7132,13 +7132,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819388</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213702</v>
+        <v>897.5367589213701</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.74417977784</v>
+        <v>676.7441797778399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890958</v>
@@ -7166,34 +7166,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7205,19 +7205,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="K39" t="n">
-        <v>302.0892292003537</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="L39" t="n">
-        <v>792.8215620441057</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.839916296234</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695571</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476027</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6513892319105</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062238</v>
+        <v>1958.128131648375</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856351</v>
+        <v>1703.443643442488</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.52630981939</v>
+        <v>1414.026473405527</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213726</v>
+        <v>1186.03692250751</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778424</v>
+        <v>965.2443433639796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,7 +7397,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7406,31 +7406,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507207</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384034</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7451,10 +7451,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>584.580680995359</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.599035247487</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.694998646824</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476028</v>
+        <v>897.5367589213698</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196959</v>
+        <v>728.6005759934629</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073602</v>
+        <v>578.4839365811272</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160703</v>
+        <v>430.5708429987341</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>283.6808955008237</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>116.4667006754025</v>
       </c>
       <c r="H43" t="n">
         <v>93.84834815160703</v>
@@ -7567,52 +7567,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948596</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213698</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778425</v>
+        <v>897.5367589213698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160684</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I44" t="n">
-        <v>95.37264148556142</v>
-      </c>
       <c r="J44" t="n">
-        <v>378.224265414807</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112162</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7728,49 +7728,49 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>119.321981874014</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005659</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055173</v>
+        <v>1537.185386958053</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437066</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8852858437066</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8852858437066</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8852858437066</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8429819466154</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6468826614953</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174763</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739463</v>
+        <v>720.4164934744859</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>231.5010718068631</v>
+        <v>169.5026663584972</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>341.5962138876751</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>76.45227440777347</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>105.1996354507095</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>353.7642348290854</v>
       </c>
       <c r="N23" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107863</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>287.4531532182679</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>304.5677898107864</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>75.13816255836355</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>304.5677898107863</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>287.4531532182561</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>73.85778156328885</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>31.95935305482032</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>71.67574440980172</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.556976973656901</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696688</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939682</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.1421360569671</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370422</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>82.46625010124336</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898778</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125481</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>251.905361565802</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.46625010124313</v>
+        <v>123.7431450752386</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898778</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125481</v>
+        <v>70.8854232942676</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>88.88006384031362</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>149.5749660608778</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8659403797852</v>
       </c>
       <c r="E37" t="n">
-        <v>136.9996889320662</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>61.86693864009253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>285.6151619502781</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537351</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>118.0618207933964</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>116.669167164811</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.23559055967976</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751362.6391596736</v>
+        <v>751301.2406916217</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751362.6391596736</v>
+        <v>751301.2406916218</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751362.6391596737</v>
+        <v>751301.2406916217</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750454.0906398206</v>
+        <v>750454.0906398208</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750454.0906398206</v>
+        <v>750454.0906398207</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750270.2685033297</v>
+        <v>750454.0906398207</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="F2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="G2" t="n">
         <v>655184.9483635226</v>
       </c>
-      <c r="G2" t="n">
-        <v>655184.9483635228</v>
-      </c>
       <c r="H2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.948363522</v>
+        <v>655184.9483635221</v>
       </c>
       <c r="J2" t="n">
-        <v>663626.821260961</v>
+        <v>663754.3174681081</v>
       </c>
       <c r="K2" t="n">
-        <v>663626.8212609609</v>
+        <v>663754.3174681083</v>
       </c>
       <c r="L2" t="n">
-        <v>663626.8212609608</v>
+        <v>663754.3174681083</v>
       </c>
       <c r="M2" t="n">
-        <v>665513.4561228114</v>
+        <v>665513.4561228117</v>
       </c>
       <c r="N2" t="n">
         <v>665513.4561228117</v>
       </c>
       <c r="O2" t="n">
-        <v>665513.4561228117</v>
+        <v>665513.4561228121</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665513.4561228119</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733746</v>
+        <v>336433.9864356427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.478740858</v>
+        <v>160866.4619420237</v>
       </c>
       <c r="N3" t="n">
-        <v>9.417553883395158e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574951724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="J4" t="n">
-        <v>8092.872670013818</v>
+        <v>7888.58076845395</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.87267001382</v>
+        <v>7888.580768453913</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.872670013818</v>
+        <v>7888.580768453769</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662763</v>
+        <v>5069.915760662917</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662814</v>
+        <v>5069.915760662914</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658128</v>
+        <v>5069.915760662914</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323501</v>
+        <v>-187674.0935323504</v>
       </c>
       <c r="C6" t="n">
         <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821945</v>
+        <v>402293.7856821941</v>
       </c>
       <c r="E6" t="n">
-        <v>-190195.5918806902</v>
+        <v>-190262.7873709154</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127172</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="G6" t="n">
-        <v>537181.8221127173</v>
+        <v>537114.6266224914</v>
       </c>
       <c r="H6" t="n">
-        <v>537181.8221127171</v>
+        <v>537114.6266224912</v>
       </c>
       <c r="I6" t="n">
-        <v>537181.8221127165</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="J6" t="n">
-        <v>221381.0646682418</v>
+        <v>219234.8409644304</v>
       </c>
       <c r="K6" t="n">
-        <v>555434.3897416163</v>
+        <v>555668.8274000733</v>
       </c>
       <c r="L6" t="n">
-        <v>555434.3897416161</v>
+        <v>555668.8274000717</v>
       </c>
       <c r="M6" t="n">
-        <v>396384.022164052</v>
+        <v>398611.1419810221</v>
       </c>
       <c r="N6" t="n">
-        <v>559513.5009049093</v>
+        <v>559477.6039230459</v>
       </c>
       <c r="O6" t="n">
-        <v>559513.5009049103</v>
+        <v>559477.6039230464</v>
       </c>
       <c r="P6" t="n">
-        <v>553679.5530299753</v>
+        <v>559477.6039230461</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.033036376212</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912544</v>
+        <v>222.5738964663494</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183317</v>
+        <v>45.6904516567356</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625286556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664078</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377723</v>
+        <v>516.5793752286799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>299.0376357978552</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>228.5419621765466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571622</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>396.6807260270364</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>51.87038096697705</v>
       </c>
       <c r="H8" t="n">
-        <v>65.65593904729451</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721816</v>
+        <v>5.275781294712147</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442731</v>
+        <v>54.0305951844708</v>
       </c>
       <c r="I26" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620756</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010032</v>
+        <v>671.0991648672409</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386787</v>
+        <v>832.557856665288</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023802</v>
+        <v>926.3810322651251</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710661</v>
+        <v>941.3708458687261</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736635</v>
+        <v>888.9097956194321</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545936</v>
+        <v>758.6639449062258</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719934</v>
+        <v>569.7250272893468</v>
       </c>
       <c r="R26" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539622</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760244</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769717</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279242</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401269</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923339</v>
+        <v>97.18822817847392</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>455.8189804900477</v>
       </c>
       <c r="L27" t="n">
-        <v>611.3583141339744</v>
+        <v>612.9048708248855</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855811</v>
+        <v>715.2310753975079</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>669.919290310589</v>
+        <v>671.6139890442897</v>
       </c>
       <c r="P27" t="n">
-        <v>452.6163668452845</v>
+        <v>480.1409214266581</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549433</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940167</v>
+        <v>52.4321205523359</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550184</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138256</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827051</v>
+        <v>71.16812746021829</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022338</v>
+        <v>167.313944152998</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772702</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835984</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558207</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407116</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242876</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560068</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614404</v>
+        <v>41.24223105841547</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721816</v>
+        <v>5.275781294712147</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442731</v>
+        <v>54.0305951844708</v>
       </c>
       <c r="I29" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620756</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010032</v>
+        <v>671.0991648672409</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386787</v>
+        <v>832.557856665288</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023802</v>
+        <v>926.3810322651251</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710661</v>
+        <v>941.3708458687261</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736635</v>
+        <v>888.9097956194321</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545936</v>
+        <v>758.6639449062258</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719934</v>
+        <v>569.7250272893468</v>
       </c>
       <c r="R29" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539622</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760244</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769717</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279242</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401269</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923339</v>
+        <v>97.18822817847392</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709026</v>
+        <v>455.8189804900477</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855811</v>
+        <v>715.2310753975079</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219886</v>
+        <v>734.161113726793</v>
       </c>
       <c r="O30" t="n">
-        <v>521.4070282489588</v>
+        <v>671.6139890442897</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6692916021609</v>
+        <v>351.6720108282097</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.4176825483323</v>
+        <v>360.3269035549433</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940167</v>
+        <v>52.4321205523359</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550184</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138256</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827051</v>
+        <v>71.16812746021829</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022338</v>
+        <v>167.313944152998</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772702</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835984</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558207</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407116</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242876</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560068</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614404</v>
+        <v>41.24223105841547</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721816</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442731</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I32" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010032</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386787</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023802</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710661</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736635</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545936</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719934</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R32" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923339</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651741</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709026</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L33" t="n">
-        <v>611.3583141339744</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855811</v>
+        <v>516.4882602262533</v>
       </c>
       <c r="N33" t="n">
-        <v>191.2469503700613</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>669.919290310589</v>
+        <v>671.6139890442909</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021609</v>
+        <v>539.0294367432363</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940167</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613923</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827051</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022338</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793645</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614404</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>153.7812479945281</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>140.4762299467359</v>
       </c>
       <c r="K39" t="n">
-        <v>348.1857632660223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>446.7255293589105</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>248.6291370076951</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293309</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338206</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>477.0972253459397</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>739.5540726950825</v>
+        <v>677.5556672467163</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>797.1863282800073</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,10 +35814,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35884,13 +35884,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>532.0423888001056</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35899,13 +35899,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>442.39092200611</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36130,16 +36130,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>892.6853506593121</v>
       </c>
       <c r="N23" t="n">
-        <v>867.4697571238424</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353893</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560226</v>
+        <v>451.0093138222604</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686914</v>
+        <v>596.7914416953008</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858937</v>
+        <v>696.0347990378524</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744753</v>
+        <v>999.4109354904029</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519767</v>
+        <v>658.8115841977453</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993241</v>
+        <v>527.4309491509562</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975438</v>
+        <v>347.4193374148973</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398301</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>317.9775415156887</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343541002</v>
+        <v>474.3504910450113</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635628</v>
+        <v>573.0970414754895</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386553</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>527.3230458661445</v>
+        <v>529.0177445998453</v>
       </c>
       <c r="P27" t="n">
-        <v>318.6419594309542</v>
+        <v>346.1665140123279</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>220.3451294689218</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.58120407354906</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556106</v>
+        <v>73.95476403632523</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302203</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375863</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412051</v>
+        <v>410.548817045439</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350493</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729484</v>
+        <v>359.0839325547513</v>
       </c>
       <c r="P28" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891811</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353893</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560226</v>
+        <v>451.0093138222604</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686914</v>
+        <v>596.7914416953008</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751075</v>
+        <v>696.0347990378524</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744753</v>
+        <v>711.9577822721351</v>
       </c>
       <c r="O29" t="n">
-        <v>961.1363678627631</v>
+        <v>658.8115841977453</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993241</v>
+        <v>602.5691117093197</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975438</v>
+        <v>559.7343280748021</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398301</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965436</v>
+        <v>317.9775415156887</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635628</v>
+        <v>573.0970414754895</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386553</v>
+        <v>602.8194016434597</v>
       </c>
       <c r="O30" t="n">
-        <v>378.8107838045144</v>
+        <v>529.0177445998453</v>
       </c>
       <c r="P30" t="n">
-        <v>403.6948841878307</v>
+        <v>217.6976034138795</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.4359084623108</v>
+        <v>220.3451294689218</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354906</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556106</v>
+        <v>73.95476403632523</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302203</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375863</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412051</v>
+        <v>410.548817045439</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350493</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729484</v>
+        <v>359.0839325547513</v>
       </c>
       <c r="P31" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891811</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560226</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L32" t="n">
-        <v>899.2584194794777</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751075</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744753</v>
+        <v>999.4109354903928</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519767</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993241</v>
+        <v>527.4309491509575</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975438</v>
+        <v>347.4193374148983</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985074</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965436</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L33" t="n">
-        <v>472.8039343541002</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635628</v>
+        <v>374.3542263042349</v>
       </c>
       <c r="N33" t="n">
-        <v>59.90523828672803</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661445</v>
+        <v>529.0177445998464</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878307</v>
+        <v>405.055029328906</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556106</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412051</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729484</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P34" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>11.18500355008366</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>13.63860328006924</v>
       </c>
       <c r="K39" t="n">
-        <v>210.3443242916633</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>308.1711495790364</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>106.0328925632506</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020582</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394644</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>334.5009809014953</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
